--- a/difs/menu.xlsx
+++ b/difs/menu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5676" yWindow="0" windowWidth="20760" windowHeight="9396"/>
+    <workbookView xWindow="6612" yWindow="0" windowWidth="20760" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
     <t>Даймонд</t>
   </si>
   <si>
-    <t>СПС</t>
+    <t>SPC</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
